--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H2">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>14.48309030667812</v>
+        <v>4.756385840819999</v>
       </c>
       <c r="R2">
-        <v>14.48309030667812</v>
+        <v>42.80747256738</v>
       </c>
       <c r="S2">
-        <v>0.0004852451721492756</v>
+        <v>9.982485977416176E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004852451721492756</v>
+        <v>9.982485977416182E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H3">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>2293.763839967275</v>
+        <v>3.989332100162667</v>
       </c>
       <c r="R3">
-        <v>2293.763839967275</v>
+        <v>35.903988901464</v>
       </c>
       <c r="S3">
-        <v>0.07685085198160259</v>
+        <v>8.372628521294333E-05</v>
       </c>
       <c r="T3">
-        <v>0.07685085198160259</v>
+        <v>8.372628521294337E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H4">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>59.91182454904899</v>
+        <v>682.9591133017793</v>
       </c>
       <c r="R4">
-        <v>59.91182454904899</v>
+        <v>6146.632019716013</v>
       </c>
       <c r="S4">
-        <v>0.002007301135426565</v>
+        <v>0.01433363482241853</v>
       </c>
       <c r="T4">
-        <v>0.002007301135426565</v>
+        <v>0.01433363482241854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>489.494463310833</v>
+        <v>12.486902</v>
       </c>
       <c r="H5">
-        <v>489.494463310833</v>
+        <v>37.460706</v>
       </c>
       <c r="I5">
-        <v>0.8520238721113981</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J5">
-        <v>0.8520238721113981</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>155.5257141654088</v>
+        <v>25.078968688644</v>
       </c>
       <c r="R5">
-        <v>155.5257141654088</v>
+        <v>225.710718197796</v>
       </c>
       <c r="S5">
-        <v>0.005210773415466078</v>
+        <v>0.0005263459728475009</v>
       </c>
       <c r="T5">
-        <v>0.005210773415466078</v>
+        <v>0.0005263459728475011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H6">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>24631.43236586802</v>
+        <v>17.55436965274</v>
       </c>
       <c r="R6">
-        <v>24631.43236586802</v>
+        <v>157.98932687466</v>
       </c>
       <c r="S6">
-        <v>0.8252578272709997</v>
+        <v>0.0003684231152926114</v>
       </c>
       <c r="T6">
-        <v>0.8252578272709997</v>
+        <v>0.0003684231152926116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H7">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>643.3591935587866</v>
+        <v>14.72340821318311</v>
       </c>
       <c r="R7">
-        <v>643.3591935587866</v>
+        <v>132.510673918648</v>
       </c>
       <c r="S7">
-        <v>0.02155527142493227</v>
+        <v>0.0003090081859350081</v>
       </c>
       <c r="T7">
-        <v>0.02155527142493227</v>
+        <v>0.0003090081859350082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.4300467868052</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H8">
-        <v>39.4300467868052</v>
+        <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.06863272959942356</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J8">
-        <v>0.06863272959942356</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>12.52799908014331</v>
+        <v>2520.593815101444</v>
       </c>
       <c r="R8">
-        <v>12.52799908014331</v>
+        <v>22685.344335913</v>
       </c>
       <c r="S8">
-        <v>0.0004197412942683251</v>
+        <v>0.05290107500966371</v>
       </c>
       <c r="T8">
-        <v>0.0004197412942683251</v>
+        <v>0.05290107500966371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.4300467868052</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H9">
-        <v>39.4300467868052</v>
+        <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.06863272959942356</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J9">
-        <v>0.06863272959942356</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>1984.125671295841</v>
+        <v>92.558825461908</v>
       </c>
       <c r="R9">
-        <v>1984.125671295841</v>
+        <v>833.029429157172</v>
       </c>
       <c r="S9">
-        <v>0.06647665536476066</v>
+        <v>0.001942582473713522</v>
       </c>
       <c r="T9">
-        <v>0.06647665536476066</v>
+        <v>0.001942582473713522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H10">
+        <v>1999.424881</v>
+      </c>
+      <c r="I10">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J10">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.14273</v>
+      </c>
+      <c r="O10">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P10">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q10">
+        <v>253.86697714057</v>
+      </c>
+      <c r="R10">
+        <v>2284.80279426513</v>
+      </c>
+      <c r="S10">
+        <v>0.005328044494804639</v>
+      </c>
+      <c r="T10">
+        <v>0.00532804449480464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H11">
+        <v>1999.424881</v>
+      </c>
+      <c r="I11">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J11">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P11">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q11">
+        <v>212.9263089605738</v>
+      </c>
+      <c r="R11">
+        <v>1916.336780645164</v>
+      </c>
+      <c r="S11">
+        <v>0.004468800397100399</v>
+      </c>
+      <c r="T11">
+        <v>0.0044688003971004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H12">
+        <v>1999.424881</v>
+      </c>
+      <c r="I12">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J12">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N12">
+        <v>164.082119</v>
+      </c>
+      <c r="O12">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P12">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q12">
+        <v>36452.20791731143</v>
+      </c>
+      <c r="R12">
+        <v>328069.8712558028</v>
+      </c>
+      <c r="S12">
+        <v>0.7650423379396968</v>
+      </c>
+      <c r="T12">
+        <v>0.765042337939697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H13">
+        <v>1999.424881</v>
+      </c>
+      <c r="I13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.008422</v>
+      </c>
+      <c r="N13">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P13">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q13">
+        <v>1338.562972782594</v>
+      </c>
+      <c r="R13">
+        <v>12047.06675504334</v>
+      </c>
+      <c r="S13">
+        <v>0.02809315003634592</v>
+      </c>
+      <c r="T13">
+        <v>0.02809315003634593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H14">
+        <v>315.012023</v>
+      </c>
+      <c r="I14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>39.99707656030999</v>
+      </c>
+      <c r="R14">
+        <v>359.9736890427899</v>
+      </c>
+      <c r="S14">
+        <v>0.0008394404265405468</v>
+      </c>
+      <c r="T14">
+        <v>0.0008394404265405471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H15">
+        <v>315.012023</v>
+      </c>
+      <c r="I15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>33.54682037469022</v>
+      </c>
+      <c r="R15">
+        <v>301.921383372212</v>
+      </c>
+      <c r="S15">
+        <v>0.0007040653874276759</v>
+      </c>
+      <c r="T15">
+        <v>0.0007040653874276761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="H10">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="I10">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="J10">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="N10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="O10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="P10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="Q10">
-        <v>51.82424931052904</v>
-      </c>
-      <c r="R10">
-        <v>51.82424931052904</v>
-      </c>
-      <c r="S10">
-        <v>0.001736332940394578</v>
-      </c>
-      <c r="T10">
-        <v>0.001736332940394578</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H16">
+        <v>315.012023</v>
+      </c>
+      <c r="I16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>5743.093360479637</v>
+      </c>
+      <c r="R16">
+        <v>51687.84024431673</v>
+      </c>
+      <c r="S16">
+        <v>0.120533427809751</v>
+      </c>
+      <c r="T16">
+        <v>0.1205334278097511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H17">
+        <v>315.012023</v>
+      </c>
+      <c r="I17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>210.892359085902</v>
+      </c>
+      <c r="R17">
+        <v>1898.031231773118</v>
+      </c>
+      <c r="S17">
+        <v>0.004426112783474885</v>
+      </c>
+      <c r="T17">
+        <v>0.004426112783474886</v>
       </c>
     </row>
   </sheetData>
